--- a/tests/data/input/一级报告详情测试用例-17001.xlsx
+++ b/tests/data/input/一级报告详情测试用例-17001.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Magfin\python\pipes\tests\data\input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0EDA00-0358-4B3C-BF9B-78C1DBF74ACF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,9 +135,6 @@
 </t>
   </si>
   <si>
-    <t>net_apply_bank_3m=28</t>
-  </si>
-  <si>
     <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='多平台借贷申请检测';
 info_fraud_verification_item.item_name[0]='3个月内申请人在多个平台申请借款';
@@ -152,9 +155,6 @@
 </t>
   </si>
   <si>
-    <t>net_apply_bank_6m=28</t>
-  </si>
-  <si>
     <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='多平台借贷申请检测';
 info_fraud_verification_item.item_name[0]='6个月内申请人在多个平台申请借款';
@@ -175,9 +175,6 @@
 </t>
   </si>
   <si>
-    <t>net_apply_bank_12m=28</t>
-  </si>
-  <si>
     <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='多平台借贷申请检测';
 info_fraud_verification_item.item_name[0]='12个月内申请人在多个平台申请借款';
@@ -198,9 +195,6 @@
 </t>
   </si>
   <si>
-    <t>net_apply_bank_his=28</t>
-  </si>
-  <si>
     <t xml:space="preserve">info_fraud_verification_item.fraud_verification_id;
 info_fraud_verification_item.item_group[0]='多平台借贷申请检测';
 info_fraud_verification_item.item_name[0]='近60个月以上申请人在多个平台申请借款';
@@ -565,19 +559,68 @@
   </si>
   <si>
     <t>net_apply_other_his=0</t>
+  </si>
+  <si>
+    <t>net_apply_bank_3m=20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>net_apply_bank_6m=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>net_apply_bank_12m=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>net_apply_bank_his=2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,352 +644,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -982,253 +702,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1250,65 +728,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1595,33 +1030,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="18.9083333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.725" style="1" customWidth="1"/>
-    <col min="5" max="5" width="84.2666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.54166666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.8166666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="29.5416666666667" customWidth="1"/>
-    <col min="9" max="10" width="12.2666666666667" customWidth="1"/>
-    <col min="11" max="11" width="13.3666666666667" customWidth="1"/>
-    <col min="12" max="14" width="11.45" customWidth="1"/>
+    <col min="3" max="3" width="18.90625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="84.26953125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.54296875" customWidth="1"/>
+    <col min="9" max="10" width="12.26953125" customWidth="1"/>
+    <col min="11" max="11" width="13.36328125" customWidth="1"/>
+    <col min="12" max="14" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:11">
+    <row r="1" spans="1:11" ht="28" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1654,7 +1089,7 @@
       </c>
       <c r="K1" s="8"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="162" spans="1:10">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="154" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1680,7 +1115,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" ht="148.5" spans="1:10">
+    <row r="3" spans="1:11" ht="154" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1706,7 +1141,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" ht="67.5" spans="1:10">
+    <row r="4" spans="1:11" ht="70" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1732,7 +1167,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" ht="162" spans="1:10">
+    <row r="5" spans="1:11" ht="154" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1758,7 +1193,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" ht="148.5" spans="1:10">
+    <row r="6" spans="1:11" ht="154" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1784,7 +1219,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" ht="27" spans="1:10">
+    <row r="7" spans="1:11" ht="28" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1808,7 +1243,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" ht="148.5" spans="1:10">
+    <row r="8" spans="1:11" ht="154" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1826,7 +1261,7 @@
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>15</v>
@@ -1834,7 +1269,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" ht="135" spans="1:10">
+    <row r="9" spans="1:11" ht="140" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1848,11 +1283,11 @@
         <v>12</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>15</v>
@@ -1860,7 +1295,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" ht="148.5" spans="1:10">
+    <row r="10" spans="1:11" ht="154" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1868,17 +1303,17 @@
         <v>10</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="6" t="s">
-        <v>33</v>
+      <c r="G10" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>15</v>
@@ -1886,7 +1321,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" ht="135" spans="1:10">
+    <row r="11" spans="1:11" ht="140" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1894,17 +1329,17 @@
         <v>10</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>15</v>
@@ -1912,7 +1347,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" ht="148.5" spans="1:10">
+    <row r="12" spans="1:11" ht="154" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1920,17 +1355,17 @@
         <v>10</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="6" t="s">
-        <v>38</v>
+      <c r="G12" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>15</v>
@@ -1938,7 +1373,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" ht="135" spans="1:10">
+    <row r="13" spans="1:11" ht="140" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1946,17 +1381,17 @@
         <v>10</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>15</v>
@@ -1964,7 +1399,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" ht="148.5" spans="1:10">
+    <row r="14" spans="1:11" ht="154" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1972,17 +1407,17 @@
         <v>10</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="6" t="s">
-        <v>43</v>
+      <c r="G14" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>15</v>
@@ -1990,7 +1425,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" ht="135" spans="1:10">
+    <row r="15" spans="1:11" ht="140" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1998,17 +1433,17 @@
         <v>10</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>15</v>
@@ -2016,7 +1451,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" ht="148.5" spans="1:10">
+    <row r="16" spans="1:11" ht="154" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -2024,7 +1459,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>12</v>
@@ -2034,7 +1469,7 @@
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>15</v>
@@ -2042,7 +1477,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" ht="135" spans="1:10">
+    <row r="17" spans="1:10" ht="140" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -2050,17 +1485,17 @@
         <v>10</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>15</v>
@@ -2068,7 +1503,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" ht="148.5" spans="1:10">
+    <row r="18" spans="1:10" ht="154" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -2076,7 +1511,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>12</v>
@@ -2086,7 +1521,7 @@
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>15</v>
@@ -2094,7 +1529,7 @@
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" ht="27" spans="1:10">
+    <row r="19" spans="1:10" ht="28" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -2102,7 +1537,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>12</v>
@@ -2110,7 +1545,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>15</v>
@@ -2118,7 +1553,7 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" ht="148.5" spans="1:10">
+    <row r="20" spans="1:10" ht="154" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -2126,7 +1561,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>12</v>
@@ -2136,7 +1571,7 @@
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>15</v>
@@ -2144,7 +1579,7 @@
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" ht="27" spans="1:10">
+    <row r="21" spans="1:10" ht="28" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -2152,7 +1587,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>12</v>
@@ -2160,7 +1595,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>15</v>
@@ -2168,7 +1603,7 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" ht="148.5" spans="1:10">
+    <row r="22" spans="1:10" ht="154" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -2176,17 +1611,17 @@
         <v>10</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>15</v>
@@ -2194,7 +1629,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" ht="27" spans="1:10">
+    <row r="23" spans="1:10" ht="28" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -2202,7 +1637,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>12</v>
@@ -2210,7 +1645,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>15</v>
@@ -2218,7 +1653,7 @@
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" ht="148.5" spans="1:10">
+    <row r="24" spans="1:10" ht="154" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -2226,17 +1661,17 @@
         <v>10</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>15</v>
@@ -2244,7 +1679,7 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" ht="27" spans="1:10">
+    <row r="25" spans="1:10" ht="28" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -2252,7 +1687,7 @@
         <v>10</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>12</v>
@@ -2260,7 +1695,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>15</v>
@@ -2268,7 +1703,7 @@
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" ht="148.5" spans="1:10">
+    <row r="26" spans="1:10" ht="154" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -2276,17 +1711,17 @@
         <v>10</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>15</v>
@@ -2294,7 +1729,7 @@
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" ht="27" spans="1:10">
+    <row r="27" spans="1:10" ht="28" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -2302,7 +1737,7 @@
         <v>10</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>12</v>
@@ -2310,7 +1745,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>15</v>
@@ -2318,7 +1753,7 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" ht="148.5" spans="1:10">
+    <row r="28" spans="1:10" ht="154" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -2326,17 +1761,17 @@
         <v>10</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>15</v>
@@ -2344,7 +1779,7 @@
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" ht="121.5" spans="1:10">
+    <row r="29" spans="1:10" ht="126" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -2352,17 +1787,17 @@
         <v>10</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>15</v>
@@ -2370,7 +1805,7 @@
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" ht="148.5" spans="1:10">
+    <row r="30" spans="1:10" ht="154" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -2378,17 +1813,17 @@
         <v>10</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>15</v>
@@ -2396,7 +1831,7 @@
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" ht="27" spans="1:10">
+    <row r="31" spans="1:10" ht="28" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -2404,7 +1839,7 @@
         <v>10</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>12</v>
@@ -2412,7 +1847,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>15</v>
@@ -2420,7 +1855,7 @@
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" ht="148.5" spans="1:10">
+    <row r="32" spans="1:10" ht="154" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -2428,7 +1863,7 @@
         <v>10</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>12</v>
@@ -2438,7 +1873,7 @@
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>15</v>
@@ -2446,7 +1881,7 @@
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" ht="27" spans="1:10">
+    <row r="33" spans="1:10" ht="28" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -2454,7 +1889,7 @@
         <v>10</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>12</v>
@@ -2462,7 +1897,7 @@
       <c r="E33" s="5"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>15</v>
@@ -2470,7 +1905,7 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" ht="148.5" spans="1:10">
+    <row r="34" spans="1:10" ht="154" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -2478,17 +1913,17 @@
         <v>10</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>15</v>
@@ -2496,7 +1931,7 @@
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" ht="27" spans="1:10">
+    <row r="35" spans="1:10" ht="28" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -2504,7 +1939,7 @@
         <v>10</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>12</v>
@@ -2512,7 +1947,7 @@
       <c r="E35" s="5"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>15</v>
@@ -2520,7 +1955,7 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" ht="148.5" spans="1:10">
+    <row r="36" spans="1:10" ht="154" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -2528,17 +1963,17 @@
         <v>10</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>15</v>
@@ -2546,7 +1981,7 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" ht="27" spans="1:10">
+    <row r="37" spans="1:10" ht="28" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -2554,7 +1989,7 @@
         <v>10</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>12</v>
@@ -2562,7 +1997,7 @@
       <c r="E37" s="5"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>15</v>
@@ -2570,7 +2005,7 @@
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" ht="148.5" spans="1:10">
+    <row r="38" spans="1:10" ht="154" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -2578,17 +2013,17 @@
         <v>10</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>15</v>
@@ -2596,7 +2031,7 @@
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
     </row>
-    <row r="39" ht="27" spans="1:10">
+    <row r="39" spans="1:10" ht="28" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -2604,7 +2039,7 @@
         <v>10</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>12</v>
@@ -2612,7 +2047,7 @@
       <c r="E39" s="5"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>15</v>
@@ -2620,7 +2055,7 @@
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
     </row>
-    <row r="40" ht="135" spans="1:10">
+    <row r="40" spans="1:10" ht="140" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -2628,17 +2063,17 @@
         <v>10</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>15</v>
@@ -2646,7 +2081,7 @@
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
     </row>
-    <row r="41" ht="121.5" spans="1:10">
+    <row r="41" spans="1:10" ht="126" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -2654,17 +2089,17 @@
         <v>10</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>15</v>
@@ -2672,7 +2107,7 @@
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
     </row>
-    <row r="42" ht="135" spans="1:10">
+    <row r="42" spans="1:10" ht="140" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -2680,17 +2115,17 @@
         <v>10</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>15</v>
@@ -2698,7 +2133,7 @@
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
     </row>
-    <row r="43" ht="27" spans="1:10">
+    <row r="43" spans="1:10" ht="28" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -2706,7 +2141,7 @@
         <v>10</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>12</v>
@@ -2714,7 +2149,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>15</v>
@@ -2722,7 +2157,7 @@
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
     </row>
-    <row r="44" ht="135" spans="1:10">
+    <row r="44" spans="1:10" ht="140" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -2730,17 +2165,17 @@
         <v>10</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>15</v>
@@ -2748,7 +2183,7 @@
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
     </row>
-    <row r="45" ht="27" spans="1:10">
+    <row r="45" spans="1:10" ht="28" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -2756,7 +2191,7 @@
         <v>10</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>12</v>
@@ -2764,7 +2199,7 @@
       <c r="E45" s="5"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>15</v>
@@ -2772,7 +2207,7 @@
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
     </row>
-    <row r="46" ht="135" spans="1:10">
+    <row r="46" spans="1:10" ht="140" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -2780,17 +2215,17 @@
         <v>10</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>15</v>
@@ -2798,7 +2233,7 @@
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
     </row>
-    <row r="47" ht="27" spans="1:10">
+    <row r="47" spans="1:10" ht="28" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -2806,7 +2241,7 @@
         <v>10</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>12</v>
@@ -2814,7 +2249,7 @@
       <c r="E47" s="5"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>15</v>
@@ -2822,7 +2257,7 @@
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
     </row>
-    <row r="48" ht="135" spans="1:10">
+    <row r="48" spans="1:10" ht="140" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -2830,17 +2265,17 @@
         <v>10</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>15</v>
@@ -2848,7 +2283,7 @@
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
     </row>
-    <row r="49" ht="27" spans="1:10">
+    <row r="49" spans="1:10" ht="28" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -2856,7 +2291,7 @@
         <v>10</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>12</v>
@@ -2864,7 +2299,7 @@
       <c r="E49" s="5"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>15</v>
@@ -2872,7 +2307,7 @@
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
     </row>
-    <row r="50" ht="148.5" spans="1:10">
+    <row r="50" spans="1:10" ht="154" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -2880,17 +2315,17 @@
         <v>10</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>15</v>
@@ -2898,7 +2333,7 @@
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
     </row>
-    <row r="51" ht="27" spans="1:10">
+    <row r="51" spans="1:10" ht="28" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -2906,7 +2341,7 @@
         <v>10</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>12</v>
@@ -2914,7 +2349,7 @@
       <c r="E51" s="5"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>15</v>
@@ -2922,7 +2357,7 @@
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
     </row>
-    <row r="52" ht="135" spans="1:10">
+    <row r="52" spans="1:10" ht="140" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -2930,17 +2365,17 @@
         <v>10</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>15</v>
@@ -2948,7 +2383,7 @@
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
     </row>
-    <row r="53" ht="121.5" spans="1:10">
+    <row r="53" spans="1:10" ht="126" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -2956,17 +2391,17 @@
         <v>10</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>15</v>
@@ -2974,7 +2409,7 @@
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
     </row>
-    <row r="54" ht="135" spans="1:10">
+    <row r="54" spans="1:10" ht="140" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -2982,17 +2417,17 @@
         <v>10</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>15</v>
@@ -3000,7 +2435,7 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
     </row>
-    <row r="55" ht="27" spans="1:10">
+    <row r="55" spans="1:10" ht="28" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -3008,7 +2443,7 @@
         <v>10</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>12</v>
@@ -3016,7 +2451,7 @@
       <c r="E55" s="5"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>15</v>
@@ -3024,7 +2459,7 @@
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
     </row>
-    <row r="56" ht="135" spans="1:10">
+    <row r="56" spans="1:10" ht="140" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -3032,17 +2467,17 @@
         <v>10</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>15</v>
@@ -3050,7 +2485,7 @@
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
     </row>
-    <row r="57" ht="27" spans="1:10">
+    <row r="57" spans="1:10" ht="28" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -3058,7 +2493,7 @@
         <v>10</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>12</v>
@@ -3066,7 +2501,7 @@
       <c r="E57" s="5"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>15</v>
@@ -3074,7 +2509,7 @@
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
     </row>
-    <row r="58" ht="135" spans="1:10">
+    <row r="58" spans="1:10" ht="140" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -3082,17 +2517,17 @@
         <v>10</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>15</v>
@@ -3100,7 +2535,7 @@
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
     </row>
-    <row r="59" ht="27" spans="1:10">
+    <row r="59" spans="1:10" ht="28" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -3108,7 +2543,7 @@
         <v>10</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>12</v>
@@ -3116,7 +2551,7 @@
       <c r="E59" s="5"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>15</v>
@@ -3124,7 +2559,7 @@
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
     </row>
-    <row r="60" ht="135" spans="1:10">
+    <row r="60" spans="1:10" ht="140" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -3132,17 +2567,17 @@
         <v>10</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>15</v>
@@ -3150,7 +2585,7 @@
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
     </row>
-    <row r="61" ht="27" spans="1:10">
+    <row r="61" spans="1:10" ht="28" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -3158,7 +2593,7 @@
         <v>10</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>12</v>
@@ -3166,7 +2601,7 @@
       <c r="E61" s="5"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>15</v>
@@ -3174,7 +2609,7 @@
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
     </row>
-    <row r="62" ht="148.5" spans="1:10">
+    <row r="62" spans="1:10" ht="154" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -3182,17 +2617,17 @@
         <v>10</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>15</v>
@@ -3200,7 +2635,7 @@
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
     </row>
-    <row r="63" ht="27" spans="1:10">
+    <row r="63" spans="1:10" ht="28" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -3208,7 +2643,7 @@
         <v>10</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>12</v>
@@ -3216,7 +2651,7 @@
       <c r="E63" s="5"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>15</v>
@@ -3225,8 +2660,8 @@
       <c r="J63" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>